--- a/doc/Распределение ролей и времени.xlsx
+++ b/doc/Распределение ролей и времени.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\vue-chatbot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E5EED-4498-4891-9496-FDEE8400BCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E39B59A-1A50-4B87-988F-0F11FBCBF4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E9DDAD-D4FE-4F2F-A420-790D0173D4DF}"/>
   </bookViews>
@@ -1140,16 +1140,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>94578</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>101526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>25550</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>71045</xdr:rowOff>
+      <xdr:colOff>25551</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307DEBF4-A2D7-4B19-9ABA-D0E341B12455}">
   <dimension ref="A4:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/doc/Распределение ролей и времени.xlsx
+++ b/doc/Распределение ролей и времени.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\vue-chatbot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E39B59A-1A50-4B87-988F-0F11FBCBF4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1557EB-3636-4A3D-AE6A-B0C9585B2F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E9DDAD-D4FE-4F2F-A420-790D0173D4DF}"/>
   </bookViews>
@@ -122,11 +122,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -232,7 +229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$46</c:f>
+              <c:f>Лист1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -251,7 +248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$47:$B$54</c:f>
+              <c:f>Лист1!$B$2:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -283,7 +280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$47:$C$54</c:f>
+              <c:f>Лист1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
@@ -325,7 +322,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$46</c:f>
+              <c:f>Лист1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -346,7 +343,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$47:$B$54</c:f>
+              <c:f>Лист1!$B$2:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -378,7 +375,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$47:$D$54</c:f>
+              <c:f>Лист1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1141,15 +1138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>44825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101526</xdr:rowOff>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25551</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>814446</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1474,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307DEBF4-A2D7-4B19-9ABA-D0E341B12455}">
-  <dimension ref="A4:E59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1491,189 +1488,186 @@
     <col min="7" max="7" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44088</v>
+      </c>
+      <c r="D2" s="5">
+        <f>E2-C2</f>
+        <v>46</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44134</v>
+      </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>10</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44088</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D9" si="0">E3-C3</f>
+        <v>46</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44134</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5">
-        <v>44088</v>
-      </c>
-      <c r="D47" s="6">
-        <f>E47-C47</f>
-        <v>46</v>
-      </c>
-      <c r="E47" s="5">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5">
-        <v>44088</v>
-      </c>
-      <c r="D48" s="6">
-        <f t="shared" ref="D48:D54" si="0">E48-C48</f>
-        <v>46</v>
-      </c>
-      <c r="E48" s="5">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C4" s="4">
         <v>44105</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E4" s="4">
         <v>44166</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C5" s="4">
         <v>44127</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E5" s="4">
         <v>44201</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C6" s="4">
         <v>44134</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E6" s="4">
         <v>44227</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C7" s="4">
         <v>44127</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E7" s="4">
         <v>44201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C8" s="4">
         <v>44201</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E8" s="4">
         <v>44227</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C9" s="4">
         <v>44201</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E9" s="4">
         <v>44227</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C55" s="3"/>
-      <c r="E55" s="3"/>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C56" s="3"/>
-      <c r="E56" s="3"/>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C57" s="3"/>
-      <c r="E57" s="3"/>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C58" s="3"/>
-      <c r="E58" s="3"/>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C59" s="3"/>
-      <c r="E59" s="3"/>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
